--- a/fuentes_datos/datasets_intermedios/matricula.xlsx
+++ b/fuentes_datos/datasets_intermedios/matricula.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamtu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carolina\Documents\Proyectos_programacion\PredEstu\fuentes_datos\datasets_intermedios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{550420BB-2F35-4A71-8897-4108B6151B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34989C-A93B-47C0-91B9-E45A543C175F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{A623FD8D-28E3-4F09-AC87-B68281BD2A34}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{A623FD8D-28E3-4F09-AC87-B68281BD2A34}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,15 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>id_matricula</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>n_matriculados</t>
   </si>
   <si>
     <t>id_semestre</t>
+  </si>
+  <si>
+    <t>id_alum_matric</t>
+  </si>
+  <si>
+    <t>id_escuela</t>
   </si>
 </sst>
 </file>
@@ -418,24 +422,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05965BB0-C0A4-4BB8-9D7D-B34E6F1D3116}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -711,6 +716,203 @@
       </c>
       <c r="C26">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308F01FF-384E-4659-988F-16D243B42F50}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
